--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="17565" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Aktion</t>
   </si>
@@ -45,16 +45,31 @@
     <t>DB wird zuvor gelöscht</t>
   </si>
   <si>
-    <t>Event 2015 mit Helferbesetzungen auf Server-Konsole ausgeben</t>
-  </si>
-  <si>
-    <t>Event 2016 ohne Helferbesetzungen auf Server-Konsole ausgeben</t>
-  </si>
-  <si>
-    <t>Event mit 2 zusätzlichen und einer wegfallenden Position zu 2016 duplizieren</t>
-  </si>
-  <si>
     <t>finish2015.Request1</t>
+  </si>
+  <si>
+    <t>Event 2015 mit Helferbesetzungen in der GUI anzeigen</t>
+  </si>
+  <si>
+    <t>Event 2016 ohne Helferbesetzungen in der GUI anzeigen</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>duplicate2015.Request1</t>
+  </si>
+  <si>
+    <t>DB wird zuvor NICHT gelöscht</t>
+  </si>
+  <si>
+    <t>Event mit 2 zusätzlichen und 4 wegfallenden Position zu 2016 duplizieren</t>
+  </si>
+  <si>
+    <t>2 zusätzliche Helfer anlegen</t>
+  </si>
+  <si>
+    <t>Event-Planung für 2016 starten</t>
   </si>
 </sst>
 </file>
@@ -76,7 +91,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -110,6 +131,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -417,8 +453,9 @@
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="6"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -434,13 +471,13 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -449,25 +486,53 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Aktion</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Event-Planung für 2016 starten</t>
+  </si>
+  <si>
+    <t>Manuelle Zuweisungsaufgaben anzeigen</t>
+  </si>
+  <si>
+    <t>7 wartende Callbacks, 6 manuelle Zuweisungen</t>
   </si>
 </sst>
 </file>
@@ -441,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
@@ -530,9 +536,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="38.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Aktion</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>7 wartende Callbacks, 6 manuelle Zuweisungen</t>
+  </si>
+  <si>
+    <t>über die GUI</t>
+  </si>
+  <si>
+    <t>vorerst über SoapUI</t>
   </si>
 </sst>
 </file>
@@ -129,15 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +151,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -450,22 +462,22 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="6"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="4"/>
+    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -477,78 +489,84 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="38.25">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>19</v>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
     </row>

--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Aktion</t>
   </si>
@@ -75,13 +75,49 @@
     <t>Manuelle Zuweisungsaufgaben anzeigen</t>
   </si>
   <si>
-    <t>7 wartende Callbacks, 6 manuelle Zuweisungen</t>
-  </si>
-  <si>
     <t>über die GUI</t>
   </si>
   <si>
     <t>vorerst über SoapUI</t>
+  </si>
+  <si>
+    <t>Zur Vorbereitung alle Prozess-Instanzen abschiessen</t>
+  </si>
+  <si>
+    <t>killAllExecutions</t>
+  </si>
+  <si>
+    <t>createHelper</t>
+  </si>
+  <si>
+    <t>Positionen 137 [Elsner, Conny], 232 [Thierse, Ulrich], 39 [Päge, Denny] und 93 [auch Thierse, Ulrich] fallen weg</t>
+  </si>
+  <si>
+    <t>Mails checken</t>
+  </si>
+  <si>
+    <t>2 Stück</t>
+  </si>
+  <si>
+    <t>10 Stück, 6* alle Optionen, 4* nur [PAUSE_ME+CHANGE_POS] (Conny, Ulrich und Werner)</t>
+  </si>
+  <si>
+    <t>Conny Elsner, Ulrich Thierse, Werner Müller und Dorothea Unterberg wurde die Position gestrichen</t>
+  </si>
+  <si>
+    <t>Karl Moik und Helene Fischer</t>
+  </si>
+  <si>
+    <t>Conny möchte dieses mal nicht helfen</t>
+  </si>
+  <si>
+    <t>Anzahl der Prozesse reduziert sich auf 11</t>
+  </si>
+  <si>
+    <t>Rückmeldung auf 'HelperCallbackReceiver' lautet nur 'null'</t>
+  </si>
+  <si>
+    <t>12 Prozesse --&gt; 10 wartende Callbacks, 2 manuelle Zuweisungen, Event geht in Status 'INITIATED'</t>
   </si>
 </sst>
 </file>
@@ -103,7 +139,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +158,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,35 +177,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,115 +517,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4"/>
-    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:7" ht="25.5">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="38.25">
-      <c r="A4" s="10" t="s">
+      <c r="E4" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="38.25">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:7" ht="25.5">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="25.5">
+      <c r="A9" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="63.75">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="38.25">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="0" yWindow="2475" windowWidth="17565" windowHeight="5970"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Aktion</t>
   </si>
@@ -63,9 +63,6 @@
     <t>DB wird zuvor NICHT gelöscht</t>
   </si>
   <si>
-    <t>Event mit 2 zusätzlichen und 4 wegfallenden Position zu 2016 duplizieren</t>
-  </si>
-  <si>
     <t>2 zusätzliche Helfer anlegen</t>
   </si>
   <si>
@@ -99,32 +96,83 @@
     <t>2 Stück</t>
   </si>
   <si>
-    <t>10 Stück, 6* alle Optionen, 4* nur [PAUSE_ME+CHANGE_POS] (Conny, Ulrich und Werner)</t>
-  </si>
-  <si>
-    <t>Conny Elsner, Ulrich Thierse, Werner Müller und Dorothea Unterberg wurde die Position gestrichen</t>
-  </si>
-  <si>
     <t>Karl Moik und Helene Fischer</t>
   </si>
   <si>
     <t>Conny möchte dieses mal nicht helfen</t>
   </si>
   <si>
-    <t>Anzahl der Prozesse reduziert sich auf 11</t>
-  </si>
-  <si>
-    <t>Rückmeldung auf 'HelperCallbackReceiver' lautet nur 'null'</t>
-  </si>
-  <si>
     <t>12 Prozesse --&gt; 10 wartende Callbacks, 2 manuelle Zuweisungen, Event geht in Status 'INITIATED'</t>
+  </si>
+  <si>
+    <t>Event mit 3 zusätzlichen und einer wegfallenden Position zu 2016 duplizieren</t>
+  </si>
+  <si>
+    <t>Ingo Deyhle wurde die Position [398] gestrichen</t>
+  </si>
+  <si>
+    <t>10 Stück, 9* alle Optionen, 1* nur [PAUSE_ME+CHANGE_POS] (Ingo)</t>
+  </si>
+  <si>
+    <t>Anzahl der Prozesse reduziert sich auf 11, Bestätigsmail für Pausierung kommt an</t>
+  </si>
+  <si>
+    <t>Jimi möchte helfen wie zuvor</t>
+  </si>
+  <si>
+    <t>Position wird gebucht, Jimi erhält Bestätigung, Prozess wartet auf Signal 'SIG_EVENT_STARTED'</t>
+  </si>
+  <si>
+    <t>Dorothea und Werner möchten anderweitig helfen</t>
+  </si>
+  <si>
+    <t>Beide bekommen eine Mail mit 10 Vorschlägen (Event hatte 11, eine davon ist bei Jimi)</t>
+  </si>
+  <si>
+    <t>Werner wählt auch die Position 'Obstschneiden'</t>
+  </si>
+  <si>
+    <t>Dorothea wählt die Position 'Obstschneiden'</t>
+  </si>
+  <si>
+    <t>Position wird gebucht, Dorothea erhält Bestätigung, Prozess wartet auf Signal 'SIG_EVENT_STARTED'</t>
+  </si>
+  <si>
+    <t>Werner sieht Callback (JSP) mit der Erklärung, dass seine gewählte Position bereits besetzt ist und eine erneute Auswahl-Mail (mit 9 Positionen)</t>
+  </si>
+  <si>
+    <t>Helene Fischer auf Position 'Motorrad 1' zuweisen</t>
+  </si>
+  <si>
+    <t>Position wird gebucht, Helene erhält Bestätigung, Prozess wartet auf Signal 'SIG_EVENT_STARTED' (dann insgesamt 3, nur noch eine manuelle Zuweisung)</t>
+  </si>
+  <si>
+    <t>Werner wählt die Position 'Moderation'</t>
+  </si>
+  <si>
+    <t>Position wird gebucht, Werner erhält Bestätigung, Prozess wartet auf Signal 'SIG_EVENT_STARTED' (dann insgesamt 4)</t>
+  </si>
+  <si>
+    <t>Dorothea kündigt die Position 'Obstschneiden'</t>
+  </si>
+  <si>
+    <t>Position wieder freigegeben, Dorothea und Admin erhalten eine Bestätigung per Mail</t>
+  </si>
+  <si>
+    <t>Prozessänderung: Was, wenn keine Positionen vorgeschlagen werden können --&gt; dann manuelle Zuweisung</t>
+  </si>
+  <si>
+    <t>Prozess dediziert für Helfer srtaten, wenn er eingetragen, nachdem das zugehörige Event in die Planung genommen wurde</t>
+  </si>
+  <si>
+    <t>Umlaute in Callback-JSP, ggf. in Auswahl-Mail ausweisen, dass es sich um eine wiederholte Abfrage handelt, da vorherige Wahl schon besetzt war?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -138,8 +186,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,11 +265,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -529,7 +577,7 @@
     <col min="2" max="2" width="27.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="29" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="15" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="3" customWidth="1"/>
   </cols>
@@ -559,10 +607,10 @@
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5">
       <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="14" t="s">
@@ -595,7 +643,7 @@
     </row>
     <row r="5" spans="1:7" ht="38.25">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>13</v>
@@ -604,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>14</v>
@@ -620,72 +668,152 @@
     </row>
     <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="51">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="63.75">
+    </row>
+    <row r="10" spans="1:7" ht="51">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.25">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="15" t="s">
         <v>32</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="38.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.25">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="102">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="76.5">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="63.75">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="38.25">
+      <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +824,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="104.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="17565" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="19260" windowHeight="6705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Aktion</t>
   </si>
@@ -166,6 +167,15 @@
   </si>
   <si>
     <t>Umlaute in Callback-JSP, ggf. in Auswahl-Mail ausweisen, dass es sich um eine wiederholte Abfrage handelt, da vorherige Wahl schon besetzt war?</t>
+  </si>
+  <si>
+    <t>Beim Vorschlagen von Positionen auf das Mindestalter eingehen</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Für verfügbare Positionen einen View bauen, der auch die zugehörige Domain enthält/anzeigt</t>
   </si>
 </sst>
 </file>
@@ -567,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -824,10 +834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -835,14 +845,27 @@
     <col min="1" max="1" width="104.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="19260" windowHeight="6705" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="16005" windowHeight="3930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Aktion</t>
   </si>
@@ -176,6 +175,30 @@
   </si>
   <si>
     <t>Für verfügbare Positionen einen View bauen, der auch die zugehörige Domain enthält/anzeigt</t>
+  </si>
+  <si>
+    <t>Beim Filtern in Pos.-Tabelle passt die Selektion u.U. nicht</t>
+  </si>
+  <si>
+    <t>Helfernachzügler 'Boris Becker'</t>
+  </si>
+  <si>
+    <t>Weiterer Prozess wird gestartet</t>
+  </si>
+  <si>
+    <t>Hinweis 'Bitte antworte nicht auf diese Mail!!'</t>
+  </si>
+  <si>
+    <t>Typo Reminder-Mail 'Diese Position auch dieses Mal wieder zu besetzen.'</t>
+  </si>
+  <si>
+    <t>Bessere Texte in den JSP-Callbacks (was ist gerade passiert?!?)</t>
+  </si>
+  <si>
+    <t>nicht wählbar</t>
+  </si>
+  <si>
+    <t>Helfer ohne Mail-Adresse manuell zuweisen (DB-Constraint)</t>
   </si>
 </sst>
 </file>
@@ -203,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +245,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -235,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -280,6 +309,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -804,25 +836,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="63.75">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="63.75">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="38.25">
-      <c r="A18" s="5" t="s">
+      <c r="E18" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -834,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -862,10 +905,41 @@
       <c r="A3" t="s">
         <v>50</v>
       </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="16005" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="21495" windowHeight="5805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Aktion</t>
   </si>
@@ -880,7 +881,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -926,6 +927,9 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -940,6 +944,9 @@
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/resourceplanning-client/src/main/resources/ManualTests.xlsx
+++ b/resourceplanning-client/src/main/resources/ManualTests.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="21495" windowHeight="5805" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="21495" windowHeight="5805"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Aktion</t>
   </si>
@@ -200,6 +199,9 @@
   </si>
   <si>
     <t>Helfer ohne Mail-Adresse manuell zuweisen (DB-Constraint)</t>
+  </si>
+  <si>
+    <t>Komplette Unkooperativität von Lars</t>
   </si>
 </sst>
 </file>
@@ -608,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -870,6 +872,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -880,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
